--- a/data/state_election_results/missouri_president.xlsx
+++ b/data/state_election_results/missouri_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40C43B2-7B7E-C540-AEA2-A2D243BD46E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E989EE-0134-AD41-B248-881E8AB7B59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17860" yWindow="2200" windowWidth="14080" windowHeight="17440" xr2:uid="{9045E10F-3F1B-0B4B-A331-B1372371C8CF}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>St. Louis County</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Wright</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -758,32 +758,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E485FF99-05BB-6943-9FB2-DBEA7ECD0EFA}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A116"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>6391</v>
@@ -800,7 +798,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>7256</v>
@@ -817,7 +815,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>2199</v>
@@ -834,7 +832,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>7727</v>
@@ -851,7 +849,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>12425</v>
@@ -868,7 +866,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>5168</v>
@@ -885,7 +883,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>6595</v>
@@ -902,7 +900,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>8106</v>
@@ -919,7 +917,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>5162</v>
@@ -936,7 +934,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>38646</v>
@@ -953,7 +951,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>22450</v>
@@ -970,7 +968,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>14599</v>
@@ -987,7 +985,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>3725</v>
@@ -1004,7 +1002,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>14815</v>
@@ -1021,7 +1019,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>18834</v>
@@ -1038,7 +1036,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>28907</v>
@@ -1055,7 +1053,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>3706</v>
@@ -1072,7 +1070,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>2451</v>
@@ -1089,7 +1087,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>37197</v>
@@ -1106,7 +1104,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>5786</v>
@@ -1123,7 +1121,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <v>3109</v>
@@ -1140,7 +1138,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
         <v>34920</v>
@@ -1157,7 +1155,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>2672</v>
@@ -1174,7 +1172,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
         <v>64605</v>
@@ -1191,7 +1189,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2">
         <v>7789</v>
@@ -1208,7 +1206,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>26086</v>
@@ -1225,7 +1223,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
         <v>6272</v>
@@ -1242,7 +1240,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
         <v>8725</v>
@@ -1259,7 +1257,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>3414</v>
@@ -1276,7 +1274,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
         <v>6620</v>
@@ -1293,7 +1291,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2">
         <v>3077</v>
@@ -1310,7 +1308,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
         <v>3827</v>
@@ -1327,7 +1325,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
         <v>5987</v>
@@ -1344,7 +1342,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2">
         <v>5896</v>
@@ -1361,7 +1359,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2">
         <v>8135</v>
@@ -1378,7 +1376,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2">
         <v>38058</v>
@@ -1395,7 +1393,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>6222</v>
@@ -1412,7 +1410,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2">
         <v>2580</v>
@@ -1429,7 +1427,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
         <v>83630</v>
@@ -1446,7 +1444,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2">
         <v>3585</v>
@@ -1463,7 +1461,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2">
         <v>3198</v>
@@ -1480,7 +1478,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
         <v>8019</v>
@@ -1497,7 +1495,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>3965</v>
@@ -1514,7 +1512,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>1976</v>
@@ -1531,7 +1529,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
         <v>3552</v>
@@ -1548,7 +1546,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
         <v>15174</v>
@@ -1565,7 +1563,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
         <v>3596</v>
@@ -1582,7 +1580,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2">
         <v>37728</v>
@@ -1599,7 +1597,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>77046</v>
@@ -1616,7 +1614,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>15489</v>
@@ -1633,7 +1631,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>1486</v>
@@ -1650,7 +1648,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
         <v>13755</v>
@@ -1667,7 +1665,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2">
         <v>12262</v>
@@ -1684,7 +1682,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
         <v>14421</v>
@@ -1701,7 +1699,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
         <v>3541</v>
@@ -1718,7 +1716,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
         <v>21848</v>
@@ -1735,7 +1733,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
         <v>4344</v>
@@ -1752,7 +1750,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
         <v>5266</v>
@@ -1769,7 +1767,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>7465</v>
@@ -1786,7 +1784,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
         <v>6075</v>
@@ -1803,7 +1801,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2">
         <v>4581</v>
@@ -1820,7 +1818,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
         <v>3890</v>
@@ -1837,7 +1835,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
         <v>9910</v>
@@ -1854,7 +1852,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
         <v>1541</v>
@@ -1871,7 +1869,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2">
         <v>10175</v>
@@ -1888,7 +1886,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2">
         <v>3537</v>
@@ -1905,7 +1903,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
         <v>5738</v>
@@ -1922,7 +1920,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
         <v>3466</v>
@@ -1939,7 +1937,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2">
         <v>4457</v>
@@ -1956,7 +1954,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
         <v>7439</v>
@@ -1973,7 +1971,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
         <v>5447</v>
@@ -1990,7 +1988,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
         <v>22090</v>
@@ -2007,7 +2005,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
         <v>6855</v>
@@ -2024,7 +2022,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2">
         <v>3847</v>
@@ -2041,7 +2039,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2">
         <v>6341</v>
@@ -2058,7 +2056,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2">
         <v>4064</v>
@@ -2075,7 +2073,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2">
         <v>4116</v>
@@ -2092,7 +2090,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2">
         <v>7634</v>
@@ -2109,7 +2107,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2">
         <v>13854</v>
@@ -2126,7 +2124,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2">
         <v>13438</v>
@@ -2143,7 +2141,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2">
         <v>5856</v>
@@ -2160,7 +2158,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2">
         <v>28917</v>
@@ -2177,7 +2175,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2">
         <v>11849</v>
@@ -2194,7 +2192,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2">
         <v>10326</v>
@@ -2211,7 +2209,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2">
         <v>1984</v>
@@ -2228,7 +2226,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2">
         <v>4396</v>
@@ -2245,7 +2243,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2">
         <v>8018</v>
@@ -2262,7 +2260,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2">
         <v>8328</v>
@@ -2279,7 +2277,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2">
         <v>2733</v>
@@ -2296,7 +2294,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2">
         <v>4838</v>
@@ -2313,7 +2311,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2">
         <v>20511</v>
@@ -2330,7 +2328,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2">
         <v>6627</v>
@@ -2347,7 +2345,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2">
         <v>199493</v>
@@ -2364,7 +2362,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2">
         <v>21474</v>
@@ -2381,7 +2379,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" s="2">
         <v>128389</v>
@@ -2398,7 +2396,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2">
         <v>126535</v>
@@ -2415,7 +2413,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2">
         <v>3930</v>
@@ -2432,7 +2430,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2">
         <v>6447</v>
@@ -2449,7 +2447,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2">
         <v>1606</v>
@@ -2466,7 +2464,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2">
         <v>1560</v>
@@ -2483,7 +2481,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2">
         <v>13769</v>
@@ -2500,7 +2498,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2">
         <v>3164</v>
@@ -2517,7 +2515,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2">
         <v>2699</v>
@@ -2534,7 +2532,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2">
         <v>11460</v>
@@ -2551,7 +2549,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2">
         <v>14800</v>
@@ -2568,7 +2566,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
         <v>1974</v>
@@ -2585,7 +2583,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2">
         <v>20508</v>
@@ -2602,7 +2600,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2">
         <v>9478</v>
@@ -2619,7 +2617,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2">
         <v>7135</v>
@@ -2636,7 +2634,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2">
         <v>13222</v>
@@ -2653,7 +2651,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2">
         <v>8046</v>
@@ -2670,7 +2668,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2">
         <v>4984</v>
@@ -2687,7 +2685,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2">
         <v>14880</v>
@@ -2704,7 +2702,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>877</v>
@@ -2721,7 +2719,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2">
         <v>7452</v>
